--- a/views/report/_dayrep.xlsx
+++ b/views/report/_dayrep.xlsx
@@ -20,7 +20,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>UserID</t>
+    <t>PIN</t>
   </si>
   <si>
     <t>Nama</t>
@@ -44,6 +44,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -128,7 +129,7 @@
   <dimension ref="A2:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/views/report/_dayrep.xlsx
+++ b/views/report/_dayrep.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>No</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Pulang</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
   </si>
 </sst>
 </file>
@@ -126,10 +129,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:E2"/>
+  <dimension ref="A2:F2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -139,7 +142,8 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.8367346938776"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6938775510204"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -158,6 +162,9 @@
       <c r="E2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/views/report/_dayrep.xlsx
+++ b/views/report/_dayrep.xlsx
@@ -140,8 +140,8 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.38775510204082"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1632653061225"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.8367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0051020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4489795918367"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4744897959184"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
